--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Training material\DemoS_012\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Demo_S012_Vonline\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5461B1E9-0EE1-4767-8258-C2DC237790A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837444CD-79D2-4969-A225-F7B16CCDA201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC" sheetId="4" r:id="rId1"/>
@@ -26,12 +26,16 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,14 +43,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0" shapeId="0">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0">
+    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -259,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -312,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -345,7 +349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="2" shapeId="0">
+    <comment ref="I8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -392,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0">
+    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -485,7 +489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R8" authorId="1" shapeId="0">
+    <comment ref="R8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -510,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S8" authorId="2" shapeId="0">
+    <comment ref="S8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -573,7 +577,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="2" shapeId="0">
+    <comment ref="K9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -821,12 +825,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="I15" authorId="0" shapeId="0">
+    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -850,7 +854,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J15" authorId="0" shapeId="0">
+    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -864,7 +868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="0" shapeId="0">
+    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -888,7 +892,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="0" shapeId="0">
+    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -902,7 +906,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0" shapeId="0">
+    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -926,7 +930,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J17" authorId="0" shapeId="0">
+    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -940,7 +944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I18" authorId="0" shapeId="0">
+    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -964,7 +968,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J18" authorId="0" shapeId="0">
+    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -978,7 +982,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="0" shapeId="0">
+    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1002,7 +1006,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J19" authorId="0" shapeId="0">
+    <comment ref="J19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1016,7 +1020,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I20" authorId="0" shapeId="0">
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1040,7 +1044,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J20" authorId="0" shapeId="0">
+    <comment ref="J20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1054,7 +1058,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I27" authorId="0" shapeId="0">
+    <comment ref="I27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1078,7 +1082,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J27" authorId="0" shapeId="0">
+    <comment ref="J27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1092,7 +1096,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I28" authorId="0" shapeId="0">
+    <comment ref="I28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J28" authorId="0" shapeId="0">
+    <comment ref="J28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000010000000}">
       <text>
         <r>
           <rPr>
@@ -1130,7 +1134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I29" authorId="0" shapeId="0">
+    <comment ref="I29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000011000000}">
       <text>
         <r>
           <rPr>
@@ -1154,7 +1158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J29" authorId="0" shapeId="0">
+    <comment ref="J29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000012000000}">
       <text>
         <r>
           <rPr>
@@ -1168,7 +1172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I30" authorId="0" shapeId="0">
+    <comment ref="I30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000013000000}">
       <text>
         <r>
           <rPr>
@@ -1192,7 +1196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J30" authorId="0" shapeId="0">
+    <comment ref="J30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000014000000}">
       <text>
         <r>
           <rPr>
@@ -1206,7 +1210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I31" authorId="0" shapeId="0">
+    <comment ref="I31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000015000000}">
       <text>
         <r>
           <rPr>
@@ -1230,7 +1234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J31" authorId="0" shapeId="0">
+    <comment ref="J31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000016000000}">
       <text>
         <r>
           <rPr>
@@ -1244,7 +1248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I32" authorId="0" shapeId="0">
+    <comment ref="I32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000017000000}">
       <text>
         <r>
           <rPr>
@@ -1268,7 +1272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J32" authorId="0" shapeId="0">
+    <comment ref="J32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000018000000}">
       <text>
         <r>
           <rPr>
@@ -1287,14 +1291,14 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="N3" authorId="0" shapeId="0">
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1408,7 +1412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="1" shapeId="0">
+    <comment ref="S3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1434,7 +1438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1507,7 +1511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="2" shapeId="0">
+    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1560,7 +1564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="2" shapeId="0">
+    <comment ref="V3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1593,7 +1597,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="2" shapeId="0">
+    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1686,7 +1690,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U9" authorId="1" shapeId="0">
+    <comment ref="U9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1711,7 +1715,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V9" authorId="2" shapeId="0">
+    <comment ref="V9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1774,7 +1778,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N10" authorId="2" shapeId="0">
+    <comment ref="N10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2798,13 +2802,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="185" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="186" formatCode="0.000"/>
-    <numFmt numFmtId="187" formatCode="0.0"/>
-    <numFmt numFmtId="214" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="\Te\x\t"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -3003,7 +3007,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3057,6 +3061,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3178,14 +3188,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -3238,7 +3248,7 @@
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3383,8 +3393,8 @@
     <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3426,7 +3436,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -3435,108 +3445,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="15" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="214" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="214" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="214" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="214" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="214" fontId="26" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="26" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="214" fontId="26" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="26" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="214" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="214" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="214" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="214" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="214" fontId="16" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="214" fontId="4" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="214" fontId="26" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="26" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="214" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="214" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="214" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="214" fontId="26" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="26" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="214" fontId="26" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="26" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="214" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="214" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="214" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="18" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="59">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
     <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
-    <cellStyle name="calculated" xfId="4"/>
-    <cellStyle name="Calculation 2" xfId="5"/>
-    <cellStyle name="Comma 10" xfId="6"/>
-    <cellStyle name="Comma 11" xfId="7"/>
-    <cellStyle name="Comma 2" xfId="8"/>
-    <cellStyle name="Comma 2 2" xfId="9"/>
-    <cellStyle name="Comma 2 3" xfId="10"/>
-    <cellStyle name="Comma 2 4" xfId="11"/>
-    <cellStyle name="Comma 2 5" xfId="12"/>
-    <cellStyle name="Comma 3" xfId="13"/>
+    <cellStyle name="calculated" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Calculation 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma 10" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Comma 11" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Comma 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Comma 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Comma 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Comma 2 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Comma 2 5" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Comma 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Good" xfId="14" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8"/>
-    <cellStyle name="Hyperlink 3" xfId="16"/>
+    <cellStyle name="Hyperlink 3" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Neutral" xfId="17" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="18"/>
-    <cellStyle name="Normal 11" xfId="19"/>
-    <cellStyle name="Normal 11 2" xfId="20"/>
-    <cellStyle name="Normal 11 3" xfId="21"/>
-    <cellStyle name="Normal 11 4" xfId="22"/>
-    <cellStyle name="Normal 12" xfId="23"/>
-    <cellStyle name="Normal 12 2" xfId="24"/>
-    <cellStyle name="Normal 12 3" xfId="25"/>
-    <cellStyle name="Normal 12 4" xfId="26"/>
-    <cellStyle name="Normal 2" xfId="27"/>
-    <cellStyle name="Normal 2 2" xfId="28"/>
-    <cellStyle name="Normal 2 3" xfId="29"/>
-    <cellStyle name="Normal 2 4" xfId="30"/>
-    <cellStyle name="Normal 3" xfId="31"/>
-    <cellStyle name="Normal 39" xfId="32"/>
-    <cellStyle name="Normal 4" xfId="33"/>
-    <cellStyle name="Normal 4 2" xfId="34"/>
-    <cellStyle name="Normal 8" xfId="35"/>
-    <cellStyle name="Normal 9 2" xfId="36"/>
-    <cellStyle name="Normale_B2020" xfId="37"/>
-    <cellStyle name="Note 2" xfId="38"/>
-    <cellStyle name="Percent 2" xfId="39"/>
-    <cellStyle name="Percent 2 2" xfId="40"/>
-    <cellStyle name="Percent 2 2 2" xfId="41"/>
-    <cellStyle name="Percent 2 3" xfId="42"/>
-    <cellStyle name="Percent 3" xfId="43"/>
-    <cellStyle name="Percent 3 2" xfId="44"/>
-    <cellStyle name="Percent 3 2 2" xfId="45"/>
-    <cellStyle name="Percent 3 3" xfId="46"/>
-    <cellStyle name="Percent 3 4" xfId="47"/>
-    <cellStyle name="Percent 4" xfId="48"/>
-    <cellStyle name="Percent 4 2" xfId="49"/>
-    <cellStyle name="Percent 4 3" xfId="50"/>
-    <cellStyle name="Percent 4 4" xfId="51"/>
-    <cellStyle name="Percent 5" xfId="52"/>
-    <cellStyle name="Percent 5 2" xfId="53"/>
-    <cellStyle name="Percent 6" xfId="54"/>
-    <cellStyle name="Percent 6 2" xfId="55"/>
-    <cellStyle name="Percent 7" xfId="56"/>
-    <cellStyle name="Percent 8" xfId="57"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="58"/>
+    <cellStyle name="Normal 10" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 11" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 11 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 11 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 11 4" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 12" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Normal 12 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Normal 12 3" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Normal 12 4" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Normal 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Normal 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Normal 2 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Normal 2 4" xfId="30" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Normal 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Normal 39" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Normal 4" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal 4 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Normal 8" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Normal 9 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Normale_B2020" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Note 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Percent 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Percent 2 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Percent 2 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Percent 2 3" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Percent 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Percent 3 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Percent 3 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Percent 3 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Percent 3 4" xfId="47" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Percent 4" xfId="48" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Percent 4 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Percent 4 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Percent 4 4" xfId="51" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Percent 5" xfId="52" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Percent 5 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Percent 6" xfId="54" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Percent 6 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Percent 7" xfId="56" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Percent 8" xfId="57" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="58" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4873,47 +4884,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="25" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="25" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="25" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="25" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="25" customWidth="1"/>
     <col min="12" max="12" width="7" style="25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" style="25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5546875" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" customWidth="1"/>
+    <col min="24" max="24" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="P2" s="58"/>
       <c r="Q2" s="58"/>
       <c r="R2" s="58"/>
@@ -4925,7 +4936,7 @@
       <c r="X2" s="58"/>
       <c r="Y2" s="54"/>
     </row>
-    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
         <v>43</v>
       </c>
@@ -4948,7 +4959,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>49</v>
       </c>
@@ -4982,7 +4993,7 @@
       <c r="W4" s="109"/>
       <c r="X4" s="109"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="P5" s="110" t="s">
         <v>8</v>
       </c>
@@ -5011,7 +5022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="26"/>
       <c r="B6" s="34" t="s">
         <v>57</v>
@@ -5063,7 +5074,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="26"/>
       <c r="B7" s="33" t="s">
         <v>66</v>
@@ -5097,11 +5108,11 @@
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E10" s="6" t="s">
         <v>0</v>
       </c>
@@ -5124,7 +5135,7 @@
       <c r="W10" s="109"/>
       <c r="X10" s="109"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>1</v>
       </c>
@@ -5193,7 +5204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="21" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>73</v>
       </c>
@@ -5258,7 +5269,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>80</v>
       </c>
@@ -5297,7 +5308,7 @@
       <c r="W13" s="112"/>
       <c r="X13" s="112"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="25" t="str">
         <f>R14</f>
         <v>ELCTNCOA01</v>
@@ -5357,7 +5368,7 @@
       <c r="W14" s="114"/>
       <c r="X14" s="114"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="25" t="str">
         <f>R15</f>
         <v>ELCTNOIL01</v>
@@ -5413,7 +5424,7 @@
       <c r="W15" s="116"/>
       <c r="X15" s="116"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="25" t="str">
         <f>R16</f>
         <v>ELCTNGAS01</v>
@@ -5474,7 +5485,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E17" s="25">
         <v>2010</v>
       </c>
@@ -5503,7 +5514,7 @@
       <c r="W17" s="114"/>
       <c r="X17" s="114"/>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E18" s="25">
         <v>2015</v>
       </c>
@@ -5532,7 +5543,7 @@
       <c r="W18" s="114"/>
       <c r="X18" s="114"/>
     </row>
-    <row r="19" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E19" s="25">
         <v>2020</v>
       </c>
@@ -5561,7 +5572,7 @@
       <c r="W19" s="114"/>
       <c r="X19" s="114"/>
     </row>
-    <row r="20" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="27" t="s">
         <v>249</v>
       </c>
@@ -5617,7 +5628,7 @@
       <c r="W20" s="114"/>
       <c r="X20" s="114"/>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="27" t="str">
         <f>R17</f>
         <v>ELCRNBIO01</v>
@@ -5677,7 +5688,7 @@
       <c r="W21" s="114"/>
       <c r="X21" s="114"/>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="27" t="str">
         <f>R18</f>
         <v>ELCRNHYD01</v>
@@ -5723,7 +5734,7 @@
       <c r="U22" s="8"/>
       <c r="V22" s="9"/>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="str">
         <f>R19</f>
         <v>ELCRNWIN01</v>
@@ -5743,8 +5754,9 @@
       <c r="H23" s="31">
         <v>0.35</v>
       </c>
-      <c r="I23" s="25">
-        <v>1500</v>
+      <c r="I23" s="129">
+        <f>1500*1.25</f>
+        <v>1875</v>
       </c>
       <c r="J23" s="25">
         <v>35</v>
@@ -5771,7 +5783,7 @@
       <c r="W23" s="8"/>
       <c r="X23" s="8"/>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="str">
         <f>R20</f>
         <v>ELCRNSOL01</v>
@@ -5817,7 +5829,7 @@
       <c r="W24" s="8"/>
       <c r="X24" s="8"/>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" s="27"/>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
@@ -5833,10 +5845,10 @@
       <c r="W25" s="8"/>
       <c r="X25" s="8"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="27"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="27"/>
     </row>
   </sheetData>
@@ -5849,46 +5861,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="25" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="25" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="25" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="25" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="25" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="25" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="25" customWidth="1"/>
     <col min="13" max="13" width="15" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" style="25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.7109375" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" customWidth="1"/>
-    <col min="24" max="24" width="8.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" customWidth="1"/>
+    <col min="17" max="17" width="7.5546875" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" customWidth="1"/>
+    <col min="21" max="21" width="11.44140625" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" customWidth="1"/>
+    <col min="23" max="23" width="14.109375" customWidth="1"/>
+    <col min="24" max="24" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="P2" s="58"/>
       <c r="Q2" s="58"/>
       <c r="R2" s="58"/>
@@ -5900,7 +5912,7 @@
       <c r="X2" s="58"/>
       <c r="Y2" s="54"/>
     </row>
-    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
         <v>43</v>
       </c>
@@ -5923,7 +5935,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B4" s="51" t="s">
         <v>123</v>
       </c>
@@ -5958,7 +5970,7 @@
       <c r="W4" s="109"/>
       <c r="X4" s="109"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="P5" s="110" t="s">
         <v>8</v>
       </c>
@@ -5987,7 +5999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="26"/>
       <c r="B6" s="34"/>
       <c r="C6" s="56"/>
@@ -6029,7 +6041,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="26"/>
       <c r="B7" s="33"/>
       <c r="C7" s="50"/>
@@ -6053,11 +6065,11 @@
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E10" s="6" t="s">
         <v>0</v>
       </c>
@@ -6080,7 +6092,7 @@
       <c r="W10" s="109"/>
       <c r="X10" s="109"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>1</v>
       </c>
@@ -6149,7 +6161,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="21" x14ac:dyDescent="0.25">
       <c r="B12" s="73" t="s">
         <v>73</v>
       </c>
@@ -6214,7 +6226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="72" t="s">
         <v>80</v>
       </c>
@@ -6253,7 +6265,7 @@
       <c r="W13" s="112"/>
       <c r="X13" s="112"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F14" s="30"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
@@ -6270,7 +6282,7 @@
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
       <c r="I15" s="27"/>
@@ -6287,7 +6299,7 @@
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="J16" s="31"/>
@@ -6303,7 +6315,7 @@
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="J17" s="31"/>
@@ -6319,7 +6331,7 @@
       <c r="W17" s="8"/>
       <c r="X17" s="8"/>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
       <c r="J18" s="31"/>
@@ -6330,7 +6342,7 @@
       <c r="W18" s="8"/>
       <c r="X18" s="8"/>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
       <c r="J19" s="31"/>
@@ -6341,7 +6353,7 @@
       <c r="W19" s="8"/>
       <c r="X19" s="8"/>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="27"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
@@ -6352,7 +6364,7 @@
       <c r="W20" s="8"/>
       <c r="X20" s="8"/>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
@@ -6363,7 +6375,7 @@
       <c r="W21" s="8"/>
       <c r="X21" s="8"/>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
@@ -6374,7 +6386,7 @@
       <c r="W22" s="8"/>
       <c r="X22" s="8"/>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
@@ -6385,7 +6397,7 @@
       <c r="W23" s="8"/>
       <c r="X23" s="8"/>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
@@ -6396,10 +6408,10 @@
       <c r="W24" s="8"/>
       <c r="X24" s="8"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="27"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="27"/>
     </row>
   </sheetData>
@@ -6408,38 +6420,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="25"/>
+    <col min="20" max="16384" width="8.88671875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="24" t="s">
         <v>43</v>
       </c>
@@ -6457,7 +6469,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -6479,7 +6491,7 @@
       <c r="R2" s="109"/>
       <c r="S2" s="109"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K3" s="110" t="s">
         <v>8</v>
       </c>
@@ -6508,7 +6520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
       <c r="K4" s="112" t="s">
         <v>62</v>
@@ -6538,7 +6550,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K5" s="9"/>
       <c r="L5" s="8"/>
       <c r="M5" s="9"/>
@@ -6549,7 +6561,7 @@
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F7" s="6" t="s">
         <v>0</v>
       </c>
@@ -6566,7 +6578,7 @@
       <c r="R7" s="116"/>
       <c r="S7" s="116"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -6620,7 +6632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="72" t="s">
         <v>73</v>
@@ -6671,7 +6683,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="72" t="s">
         <v>80</v>
@@ -6702,7 +6714,7 @@
       <c r="R10" s="120"/>
       <c r="S10" s="120"/>
     </row>
-    <row r="11" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6723,7 +6735,7 @@
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
     </row>
-    <row r="12" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6744,7 +6756,7 @@
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
     </row>
-    <row r="13" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6765,7 +6777,7 @@
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
     </row>
-    <row r="14" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6786,7 +6798,7 @@
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
     </row>
-    <row r="15" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6807,7 +6819,7 @@
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
     </row>
-    <row r="16" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6828,7 +6840,7 @@
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
     </row>
-    <row r="17" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
@@ -6849,7 +6861,7 @@
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
     </row>
-    <row r="18" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -6870,7 +6882,7 @@
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
     </row>
-    <row r="19" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -6891,7 +6903,7 @@
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
     </row>
-    <row r="20" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -6912,7 +6924,7 @@
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
     </row>
-    <row r="21" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -6933,7 +6945,7 @@
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
     </row>
-    <row r="22" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
@@ -6954,7 +6966,7 @@
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
     </row>
-    <row r="23" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -6975,7 +6987,7 @@
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
     </row>
-    <row r="24" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -6996,7 +7008,7 @@
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
     </row>
-    <row r="25" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="80"/>
       <c r="C25" s="9"/>
@@ -7017,7 +7029,7 @@
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
     </row>
-    <row r="26" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
@@ -7038,7 +7050,7 @@
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
     </row>
-    <row r="27" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -7059,16 +7071,16 @@
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
     </row>
   </sheetData>
@@ -7078,44 +7090,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
     <col min="12" max="12" width="2" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
     <col min="16" max="16" width="75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.42578125" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" customWidth="1"/>
-    <col min="21" max="21" width="8.7109375" customWidth="1"/>
+    <col min="17" max="17" width="6.44140625" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" customWidth="1"/>
+    <col min="19" max="19" width="13.5546875" customWidth="1"/>
+    <col min="20" max="20" width="13.88671875" customWidth="1"/>
+    <col min="21" max="21" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B3" s="38" t="s">
         <v>43</v>
       </c>
@@ -7138,7 +7150,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="40" t="s">
         <v>133</v>
       </c>
@@ -7161,7 +7173,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="51" t="s">
         <v>134</v>
       </c>
@@ -7195,7 +7207,7 @@
       <c r="T5" s="109"/>
       <c r="U5" s="109"/>
     </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="51" t="s">
         <v>92</v>
@@ -7248,7 +7260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -7289,7 +7301,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="50"/>
       <c r="C8" s="50"/>
@@ -7312,7 +7324,7 @@
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D11" s="6" t="s">
         <v>0</v>
       </c>
@@ -7334,7 +7346,7 @@
       <c r="T11" s="116"/>
       <c r="U11" s="116"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>1</v>
       </c>
@@ -7393,7 +7405,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="43" t="s">
         <v>73</v>
       </c>
@@ -7450,7 +7462,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="42" t="s">
         <v>80</v>
       </c>
@@ -7483,7 +7495,7 @@
       <c r="T14" s="112"/>
       <c r="U14" s="112"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15" s="35" t="str">
         <f t="shared" ref="B15:B38" si="0">O15</f>
         <v>CSHNCOA1</v>
@@ -7535,7 +7547,7 @@
       <c r="T15" s="114"/>
       <c r="U15" s="114"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" s="35" t="str">
         <f t="shared" si="0"/>
         <v>CSHNGAS1</v>
@@ -7585,7 +7597,7 @@
       <c r="T16" s="114"/>
       <c r="U16" s="114"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" s="35" t="str">
         <f t="shared" si="0"/>
         <v>CSHNOIL1</v>
@@ -7635,7 +7647,7 @@
       <c r="T17" s="114"/>
       <c r="U17" s="114"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="35" t="str">
         <f t="shared" si="0"/>
         <v>CSHNBIO1</v>
@@ -7685,7 +7697,7 @@
       <c r="T18" s="114"/>
       <c r="U18" s="114"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" s="35" t="str">
         <f>O19</f>
         <v>CSHNSOL1</v>
@@ -7735,7 +7747,7 @@
       <c r="T19" s="114"/>
       <c r="U19" s="114"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="35" t="str">
         <f t="shared" si="0"/>
         <v>CSHNELC1</v>
@@ -7785,7 +7797,7 @@
       <c r="T20" s="114"/>
       <c r="U20" s="114"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="87" t="str">
         <f t="shared" si="0"/>
         <v>CAPNELC1</v>
@@ -7833,7 +7845,7 @@
       <c r="T21" s="114"/>
       <c r="U21" s="114"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" s="35" t="str">
         <f t="shared" si="0"/>
         <v>COTNCOA1</v>
@@ -7881,7 +7893,7 @@
       <c r="T22" s="114"/>
       <c r="U22" s="114"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" s="35" t="str">
         <f t="shared" si="0"/>
         <v>COTNGAS1</v>
@@ -7929,7 +7941,7 @@
       <c r="T23" s="114"/>
       <c r="U23" s="114"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="35" t="str">
         <f t="shared" si="0"/>
         <v>COTNOIL1</v>
@@ -7976,7 +7988,7 @@
       <c r="T24" s="114"/>
       <c r="U24" s="114"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="35" t="str">
         <f t="shared" si="0"/>
         <v>COTNBIO1</v>
@@ -8023,7 +8035,7 @@
       <c r="T25" s="114"/>
       <c r="U25" s="114"/>
     </row>
-    <row r="26" spans="2:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="98" t="str">
         <f t="shared" si="0"/>
         <v>COTNELC1</v>
@@ -8071,7 +8083,7 @@
       <c r="T26" s="122"/>
       <c r="U26" s="122"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" s="35" t="str">
         <f t="shared" si="0"/>
         <v>RSHNCOA1</v>
@@ -8121,7 +8133,7 @@
       <c r="T27" s="116"/>
       <c r="U27" s="116"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" s="35" t="str">
         <f t="shared" si="0"/>
         <v>RSHNGAS1</v>
@@ -8172,7 +8184,7 @@
       <c r="T28" s="116"/>
       <c r="U28" s="116"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="35" t="str">
         <f t="shared" si="0"/>
         <v>RSHNOIL1</v>
@@ -8223,7 +8235,7 @@
       <c r="T29" s="116"/>
       <c r="U29" s="116"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="35" t="str">
         <f t="shared" si="0"/>
         <v>RSHNBIO1</v>
@@ -8274,7 +8286,7 @@
       <c r="T30" s="116"/>
       <c r="U30" s="116"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="35" t="str">
         <f>O31</f>
         <v>RSHNSOL1</v>
@@ -8325,7 +8337,7 @@
       <c r="T31" s="116"/>
       <c r="U31" s="116"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="35" t="str">
         <f t="shared" si="0"/>
         <v>RSHNELC1</v>
@@ -8376,7 +8388,7 @@
       <c r="T32" s="116"/>
       <c r="U32" s="116"/>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="87" t="str">
         <f t="shared" si="0"/>
         <v>RAPNELC1</v>
@@ -8425,7 +8437,7 @@
       <c r="T33" s="116"/>
       <c r="U33" s="116"/>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="35" t="str">
         <f t="shared" si="0"/>
         <v>ROTNCOA1</v>
@@ -8474,7 +8486,7 @@
       <c r="T34" s="116"/>
       <c r="U34" s="116"/>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" s="35" t="str">
         <f t="shared" si="0"/>
         <v>ROTNGAS1</v>
@@ -8523,7 +8535,7 @@
       <c r="T35" s="116"/>
       <c r="U35" s="116"/>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="35" t="str">
         <f t="shared" si="0"/>
         <v>ROTNOIL1</v>
@@ -8571,7 +8583,7 @@
       <c r="T36" s="116"/>
       <c r="U36" s="116"/>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" s="35" t="str">
         <f t="shared" si="0"/>
         <v>ROTNBIO1</v>
@@ -8619,7 +8631,7 @@
       <c r="T37" s="116"/>
       <c r="U37" s="116"/>
     </row>
-    <row r="38" spans="2:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="98" t="str">
         <f t="shared" si="0"/>
         <v>ROTNELC1</v>
@@ -8668,7 +8680,7 @@
       <c r="T38" s="116"/>
       <c r="U38" s="116"/>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" s="54"/>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -8681,7 +8693,7 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40" s="54"/>
       <c r="C40" s="54"/>
       <c r="D40" s="54"/>
@@ -8694,7 +8706,7 @@
       <c r="K40" s="54"/>
       <c r="L40" s="54"/>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" s="54"/>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8707,7 +8719,7 @@
       <c r="K41" s="54"/>
       <c r="L41" s="54"/>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B42" s="54"/>
       <c r="C42" s="54"/>
       <c r="D42" s="54"/>
@@ -8720,7 +8732,7 @@
       <c r="K42" s="54"/>
       <c r="L42" s="54"/>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43" s="54"/>
       <c r="C43" s="54"/>
       <c r="D43" s="54"/>
@@ -8733,7 +8745,7 @@
       <c r="K43" s="54"/>
       <c r="L43" s="54"/>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B44" s="54"/>
       <c r="C44" s="54"/>
       <c r="D44" s="54"/>
@@ -8746,7 +8758,7 @@
       <c r="K44" s="54"/>
       <c r="L44" s="54"/>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B45" s="54"/>
       <c r="C45" s="54"/>
       <c r="D45" s="54"/>
@@ -8759,7 +8771,7 @@
       <c r="K45" s="54"/>
       <c r="L45" s="54"/>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" s="54"/>
       <c r="C46" s="54"/>
       <c r="D46" s="54"/>
@@ -8772,7 +8784,7 @@
       <c r="K46" s="54"/>
       <c r="L46" s="54"/>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47" s="54"/>
       <c r="C47" s="54"/>
       <c r="D47" s="54"/>
@@ -8785,7 +8797,7 @@
       <c r="K47" s="54"/>
       <c r="L47" s="54"/>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B48" s="54"/>
       <c r="C48" s="54"/>
       <c r="D48" s="54"/>
@@ -8805,40 +8817,40 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
     <col min="13" max="13" width="2" style="54" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="78.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="78.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.6640625" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="49" t="s">
         <v>43</v>
       </c>
@@ -8862,7 +8874,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="51" t="s">
         <v>99</v>
       </c>
@@ -8897,7 +8909,7 @@
       <c r="U2" s="109"/>
       <c r="V2" s="109"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N3" s="110" t="s">
         <v>8</v>
       </c>
@@ -8926,7 +8938,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="8" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" s="8" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="50"/>
       <c r="C4" s="50"/>
       <c r="D4" s="50"/>
@@ -8961,7 +8973,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:22" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="50"/>
       <c r="C5" s="50"/>
       <c r="D5" s="50"/>
@@ -8977,7 +8989,7 @@
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D8" s="6" t="s">
         <v>0</v>
       </c>
@@ -8998,7 +9010,7 @@
       <c r="U8" s="116"/>
       <c r="V8" s="116"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>1</v>
       </c>
@@ -9061,7 +9073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="60" t="s">
         <v>73</v>
       </c>
@@ -9122,7 +9134,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="59" t="s">
         <v>80</v>
       </c>
@@ -9163,7 +9175,7 @@
       <c r="U11" s="125"/>
       <c r="V11" s="125"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>P12</f>
         <v>TCANGAS1</v>
@@ -9221,7 +9233,7 @@
       </c>
       <c r="V12" s="114"/>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f t="shared" ref="B13:B23" si="0">P13</f>
         <v>TCANDSL1</v>
@@ -9277,7 +9289,7 @@
       </c>
       <c r="V13" s="114"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>TCANLPG1</v>
@@ -9333,7 +9345,7 @@
       </c>
       <c r="V14" s="114"/>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v>TCANGSL1</v>
@@ -9389,7 +9401,7 @@
       </c>
       <c r="V15" s="114"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f>P16</f>
         <v>TCARNBIO1</v>
@@ -9445,7 +9457,7 @@
       </c>
       <c r="V16" s="114"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="86" t="str">
         <f t="shared" si="0"/>
         <v>TCANELC1</v>
@@ -9501,7 +9513,7 @@
       </c>
       <c r="V17" s="126"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
         <v>TPUNGAS1</v>
@@ -9556,7 +9568,7 @@
       </c>
       <c r="V18" s="114"/>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>TPUNDSL1</v>
@@ -9611,7 +9623,7 @@
       </c>
       <c r="V19" s="116"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>TPUNLPG1</v>
@@ -9666,7 +9678,7 @@
       </c>
       <c r="V20" s="116"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>TPUNGSL1</v>
@@ -9721,7 +9733,7 @@
       </c>
       <c r="V21" s="116"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f>P22</f>
         <v>TPUBNBIO1</v>
@@ -9776,7 +9788,7 @@
       </c>
       <c r="V22" s="116"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>TPUNELC1</v>
@@ -9831,7 +9843,7 @@
       </c>
       <c r="V23" s="116"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F25" s="67"/>
     </row>
   </sheetData>
@@ -9842,7 +9854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -9852,19 +9864,19 @@
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="106" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="9.140625" style="106"/>
+    <col min="2" max="12" width="9.109375" style="106"/>
     <col min="13" max="13" width="5" style="106" customWidth="1"/>
     <col min="14" max="15" width="2" style="106" bestFit="1" customWidth="1"/>
-    <col min="16" max="26" width="9.140625" style="106"/>
+    <col min="16" max="26" width="9.109375" style="106"/>
     <col min="27" max="27" width="2" style="106" customWidth="1"/>
-    <col min="28" max="28" width="2.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="106"/>
+    <col min="28" max="28" width="2.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.109375" style="106"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B2" s="107" t="s">
         <v>204</v>
       </c>
@@ -9877,9 +9889,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="P2" r:id="rId2"/>
-    <hyperlink ref="AC2" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="P2" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="AC2" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
